--- a/input/Regras Realbox.xlsx
+++ b/input/Regras Realbox.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\OneDrive\Área de Trabalho\Programações\Chat with GPT\chat-with-gpt\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\OneDrive\Área de Trabalho\Programações\RealBOT - AI Assisit\RealBOT_AIRuleAssist\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E1CD81-B3B6-468F-926E-005C86787E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9C9088-9745-4D93-8C27-438B4D60174B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1965" windowWidth="20730" windowHeight="11160" xr2:uid="{7694C366-6316-491B-A001-C2509E704C3D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>Pergunta</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Quais as limitações de espelho 4mm?</t>
   </si>
   <si>
-    <t>Quais limitações de espelho 6mm?</t>
-  </si>
-  <si>
     <t>Tamanho minimo de 150x150mm para lapidar. Tamanho máximo de 3200 mm linear e área máxima de 4,5 m²</t>
   </si>
   <si>
@@ -79,6 +76,174 @@
   </si>
   <si>
     <t>Não podem ter uma medida linear maior que 2500 mm, aréa máxima de 3m², e não podem ter recortes. Caso contrário, serão terceirizadas</t>
+  </si>
+  <si>
+    <t>Quais as limitações de espelho 6mm?</t>
+  </si>
+  <si>
+    <t>Qual tamanho máximo para temperar uma peça temperada?</t>
+  </si>
+  <si>
+    <t>A peça não pode ter uma dimensão maior do que 3600 mm, ou as duas maiores do que 2100 mm</t>
+  </si>
+  <si>
+    <t>Por que tem tamanho máximo pra temperar?</t>
+  </si>
+  <si>
+    <t>Por que tem tamanho mínimo pra temperar?</t>
+  </si>
+  <si>
+    <t>Porque o forno tem limite de 3600 x 2100 mm.</t>
+  </si>
+  <si>
+    <t>Porque peças menores do que 250x250 correm o risco de cair no vão dos rolos do forno.</t>
+  </si>
+  <si>
+    <t>Quais as limitações de qualquer tipo de peça fabricada internamente?</t>
+  </si>
+  <si>
+    <t>A peça para ser fabricada internamente precisa ter no máximo 4,5m². Além disso será terceirizada.</t>
+  </si>
+  <si>
+    <t>Incolor 6mm, Incolor 8mm, Incolor 10mm, Fumê 8mm, Verde 8mm e Espelho Guardiam 4mm são as mais comuns e com prazo menor.</t>
+  </si>
+  <si>
+    <t>Incolor 4mm, Miniboreal 3/4mm, Fume 6mm, Fume 10mm, Verde 6mm, Verde 10mm, Refletivo Neutral 8mm, Acidato 8mm, Pontilhado 8mm.</t>
+  </si>
+  <si>
+    <t>Entre só lapidado e cortado, qual melhor opção?</t>
+  </si>
+  <si>
+    <t>Sempre opte por vender lapidado. Os custos de produção são similares, e corremos menos riscos de acidentes de trabalho.</t>
+  </si>
+  <si>
+    <t>Qual tamanho minímo para fazer um diâmetro?</t>
+  </si>
+  <si>
+    <t>Qual tamanho máximo para fazer um diâmtro?</t>
+  </si>
+  <si>
+    <t>O tamanho máximo é de 1600 mm de diâmetro</t>
+  </si>
+  <si>
+    <t>O tamanho mínimo é de 400 mm de diâmetro</t>
+  </si>
+  <si>
+    <t>Refletivo Neutral 4+4mm, Incolor 3+3mm, Incolor 4+4mm, Incolor 5+5mm.</t>
+  </si>
+  <si>
+    <t>Quais são as matérias primas de laminados disponíveis?</t>
+  </si>
+  <si>
+    <t>Quais são outras matérias primas monolíticas não tão comuns?</t>
+  </si>
+  <si>
+    <t>Quais são as matérias primas monolíticas comuns disponíveis?</t>
+  </si>
+  <si>
+    <t>Para o Coordenador de produção</t>
+  </si>
+  <si>
+    <t>Para a Expedição</t>
+  </si>
+  <si>
+    <t>Se a peça está em "Realbox Loja", pra quem eu devo perguntar?</t>
+  </si>
+  <si>
+    <t>Se a peça está em "transito", pra quem eu devo perguntar?</t>
+  </si>
+  <si>
+    <t>Se a peça está em "expedição", pra quem eu devo perguntar?</t>
+  </si>
+  <si>
+    <t>Se a peça está em "corte", pra quem eu devo perguntar?</t>
+  </si>
+  <si>
+    <t>Se a peça está em "lapidação", pra quem eu devo perguntar?</t>
+  </si>
+  <si>
+    <t>Se a peça está em "marcação", pra quem eu devo perguntar?</t>
+  </si>
+  <si>
+    <t>Se a peça está em "conferência", pra quem eu devo perguntar?</t>
+  </si>
+  <si>
+    <t>Se a peça está em "pré forno", pra quem eu devo perguntar?</t>
+  </si>
+  <si>
+    <t>Se a peça está em "têmpera", pra quem eu devo perguntar?</t>
+  </si>
+  <si>
+    <t>Se a peça está em "entrada de expedição", pra quem eu devo perguntar?</t>
+  </si>
+  <si>
+    <t>A peça deve estar na loja.</t>
+  </si>
+  <si>
+    <t>Para o PCP</t>
+  </si>
+  <si>
+    <t>Se a peça está em "PCP/Programação", pra quem eu devo perguntar?</t>
+  </si>
+  <si>
+    <t>Se a peça está em "Aguardando Entrega", pra quem eu devo perguntar?</t>
+  </si>
+  <si>
+    <t>Se forem peças temperadas, para o Coordenador de produção. Se forem apenas cortadas/lapidadas, para a Expedição.</t>
+  </si>
+  <si>
+    <t>Qual a missão da Realbox?</t>
+  </si>
+  <si>
+    <t>Ser referência no mercado vidreiro, buscando aprimoramento contínuo e inovação, mantendo assim o crescimento da empresa.</t>
+  </si>
+  <si>
+    <t>Qual a visão da Realbox?</t>
+  </si>
+  <si>
+    <t>Contribuir para o crescimento do setor vidreiro na região de Sorocaba, por meio de uma ampla gama de produtos de qualidade à pronta-entrega para a distribuição.</t>
+  </si>
+  <si>
+    <t>Quais os valores da Realbox?</t>
+  </si>
+  <si>
+    <t>Tradição, Qualidade, Seriedade, Excelência, Competência, Ética, Transparência e Efetividade para com seus colaboradores, clientes e fornecedores.</t>
+  </si>
+  <si>
+    <t>Quando surgiu a Realbox?</t>
+  </si>
+  <si>
+    <t>A RealBox Distribuidora foi fundada em 1991, inicialmente voltada para a venda e produção de Box de acrílico e portas sanfonadas, atendendo apenas o varejo.</t>
+  </si>
+  <si>
+    <t>A RealBox se diferencia no setor por sua tradição e credibilidade, realizando entregas semanais, facilitando assim as programações de instalação de seus clientes.</t>
+  </si>
+  <si>
+    <t>Qual a diferenciação da Realbox?</t>
+  </si>
+  <si>
+    <t>Quais as vantagens do e-commerce?</t>
+  </si>
+  <si>
+    <t>Agilidade, economia de tempo do cliente e do vendedor com pedidos simples, orçamentos fáceis, menor prazo de entrega, praticidade</t>
+  </si>
+  <si>
+    <t>Por que não pode ser tudo urgente?</t>
+  </si>
+  <si>
+    <t>Como toda empresa, há limitações no processo que afetam o prazo, e diminuir o prazo pra um, pode significar atrasar pra outro.</t>
+  </si>
+  <si>
+    <t>O que precisa ser informado em urgências?</t>
+  </si>
+  <si>
+    <t>Qual o vidro, qual a espessura, qual o tipo de instalação, qual a data de entrega desejada ou se o cliente irá retirar, e o motivo da urgência.</t>
+  </si>
+  <si>
+    <t>O que precisa ter nos desenho?</t>
+  </si>
+  <si>
+    <t>Os desenho precisam estar legíveis, com todas informações necessárias para fazer um pedido.</t>
   </si>
 </sst>
 </file>
@@ -430,16 +595,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800FE2DD-6CEE-4360-866D-A33D561BD3F3}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="121" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="126.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -492,26 +657,274 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
